--- a/Charge.xlsx
+++ b/Charge.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="94">
+  <si>
+    <t>Credit</t>
+  </si>
   <si>
     <t>Shruthi H</t>
   </si>
@@ -100,6 +103,18 @@
     <t>lhs.adithya1@gmail.com</t>
   </si>
   <si>
+    <t>Nihal Palankar</t>
+  </si>
+  <si>
+    <t>8050327050</t>
+  </si>
+  <si>
+    <t>nihalpalankar689@gmail.com</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
     <t>Samarth Hadimani</t>
   </si>
   <si>
@@ -118,6 +133,9 @@
     <t>yovikas1730@gmail.com</t>
   </si>
   <si>
+    <t>Concrete</t>
+  </si>
+  <si>
     <t>Vaishnavi Bhar</t>
   </si>
   <si>
@@ -145,6 +163,9 @@
     <t>000chaithanya@gmail.com</t>
   </si>
   <si>
+    <t>Clutch</t>
+  </si>
+  <si>
     <t>Supreeth S</t>
   </si>
   <si>
@@ -154,6 +175,9 @@
     <t>supreethsatish@gmail.com</t>
   </si>
   <si>
+    <t>Chronicle</t>
+  </si>
+  <si>
     <t>K Keerthana</t>
   </si>
   <si>
@@ -181,6 +205,9 @@
     <t>mariapalacherril2411@gmail.com</t>
   </si>
   <si>
+    <t>Charge</t>
+  </si>
+  <si>
     <t>Vamshi A C</t>
   </si>
   <si>
@@ -224,15 +251,6 @@
   </si>
   <si>
     <t>motokaushik@gmail.com</t>
-  </si>
-  <si>
-    <t>Nihal Palankar</t>
-  </si>
-  <si>
-    <t>8050327050</t>
-  </si>
-  <si>
-    <t>nihalpalankar689@gmail.com</t>
   </si>
   <si>
     <t>Pranav Vigneshwar Kumar</t>
@@ -609,13 +627,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -628,10 +646,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -640,12 +661,15 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -654,12 +678,15 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -668,12 +695,15 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -682,12 +712,15 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -696,12 +729,15 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -710,12 +746,15 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -724,12 +763,15 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -738,12 +780,15 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -752,12 +797,15 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -766,12 +814,15 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -780,362 +831,440 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>39</v>
       </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
       <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
       <c r="D17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
         <v>10</v>
       </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>53</v>
       </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>69</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
         <v>23</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>24</v>
       </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" t="s">
-        <v>69</v>
-      </c>
       <c r="D31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>78</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
         <v>5</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>6</v>
       </c>
-      <c r="D36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" t="s">
-        <v>18</v>
-      </c>
       <c r="D37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
         <v>17</v>
@@ -1144,12 +1273,15 @@
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
@@ -1158,49 +1290,78 @@
         <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>87</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>90</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
